--- a/doc/目標管理スケジュール_設計.xlsx
+++ b/doc/目標管理スケジュール_設計.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -164,13 +164,6 @@
     <t>DBテーブル定義書</t>
     <rPh sb="6" eb="9">
       <t>テイギショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -778,21 +771,90 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -819,75 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1860,7 +1853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1933,10 +1926,10 @@
   <dimension ref="A1:CL28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="24" ySplit="2" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10:O10"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -1951,100 +1944,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="41" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="44">
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="25">
         <v>44394</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="27"/>
     </row>
     <row r="2" spans="1:90" ht="22.5" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="41" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="25">
         <v>44407</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="3" spans="1:90" ht="15" customHeight="1">
       <c r="A3" s="3"/>
@@ -2069,38 +2062,38 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:90" ht="15" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="47" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="49" t="s">
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
       <c r="Y4" s="4">
         <f>AH1</f>
         <v>44394</v>
@@ -2361,38 +2354,38 @@
       <c r="CL4" s="7"/>
     </row>
     <row r="5" spans="1:90" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
       <c r="Y5" s="8">
         <f>AH1</f>
         <v>44394</v>
@@ -2651,30 +2644,30 @@
       </c>
     </row>
     <row r="6" spans="1:90" ht="15" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
       <c r="Y6" s="10" t="str">
         <f>TEXT(Y5,"aaa")</f>
         <v>土</v>
@@ -2933,38 +2926,38 @@
       </c>
     </row>
     <row r="7" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="31" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="24">
         <v>44394</v>
       </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24">
         <v>44394</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -3031,38 +3024,38 @@
       <c r="CJ7" s="12"/>
     </row>
     <row r="8" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="31" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="24">
         <v>44395</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24">
         <v>44395</v>
       </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -3129,38 +3122,38 @@
       <c r="CJ8" s="12"/>
     </row>
     <row r="9" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="31" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="24">
         <v>44396</v>
       </c>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24">
         <v>44402</v>
       </c>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -3227,38 +3220,38 @@
       <c r="CJ9" s="12"/>
     </row>
     <row r="10" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="24">
         <v>44396</v>
       </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24">
         <v>44396</v>
       </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -3325,38 +3318,38 @@
       <c r="CJ10" s="12"/>
     </row>
     <row r="11" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="24">
         <v>44397</v>
       </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24">
         <v>44397</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -3423,38 +3416,38 @@
       <c r="CJ11" s="12"/>
     </row>
     <row r="12" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="24">
         <v>44398</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24">
         <v>44399</v>
       </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -3521,38 +3514,38 @@
       <c r="CJ12" s="12"/>
     </row>
     <row r="13" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="19">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20">
         <v>44400</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="19">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="20">
         <v>44401</v>
       </c>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -3619,38 +3612,38 @@
       <c r="CJ13" s="12"/>
     </row>
     <row r="14" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="19">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20">
         <v>44401</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="19">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="20">
         <v>44402</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -3717,38 +3710,38 @@
       <c r="CJ14" s="12"/>
     </row>
     <row r="15" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="31" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="19">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20">
         <v>44403</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="19">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="20">
         <v>44406</v>
       </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -3815,38 +3808,38 @@
       <c r="CJ15" s="12"/>
     </row>
     <row r="16" spans="1:90" ht="18.75" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="19">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20">
         <v>44403</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="19">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="20">
         <v>44403</v>
       </c>
-      <c r="T16" s="20"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -3913,38 +3906,38 @@
       <c r="CJ16" s="12"/>
     </row>
     <row r="17" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="19">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20">
         <v>44404</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="19">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="20">
         <v>44404</v>
       </c>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -4011,38 +4004,38 @@
       <c r="CJ17" s="12"/>
     </row>
     <row r="18" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="19">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20">
         <v>44405</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="19">
+      <c r="Q18" s="21"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="20">
         <v>44405</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
@@ -4111,36 +4104,36 @@
     <row r="19" spans="1:88" ht="18.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="31" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20">
+        <v>44406</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="20">
+        <v>44406</v>
+      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="19">
-        <v>44406</v>
-      </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="19">
-        <v>44406</v>
-      </c>
-      <c r="T19" s="20"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -4207,38 +4200,38 @@
       <c r="CJ19" s="12"/>
     </row>
     <row r="20" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="19">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20">
         <v>44407</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="19">
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="20">
         <v>44407</v>
       </c>
-      <c r="T20" s="20"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
@@ -4305,30 +4298,30 @@
       <c r="CJ20" s="12"/>
     </row>
     <row r="21" spans="1:88" ht="18.75" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -4403,80 +4396,6 @@
     <row r="28" spans="1:88" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:X6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="P13:R13"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H21:O21"/>
@@ -4493,6 +4412,80 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:X6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Z5:CJ6">
